--- a/data/trans_dic/P12A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 29,76</t>
+          <t>3,23; 28,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 22,57</t>
+          <t>3,96; 31,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 21,87</t>
+          <t>0,0; 19,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 19,66</t>
+          <t>7,49; 40,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 16,64</t>
+          <t>2,23; 19,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 17,41</t>
+          <t>2,16; 19,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 21,06</t>
+          <t>2,22; 20,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 15,1</t>
+          <t>1,97; 18,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 16,71</t>
+          <t>3,9; 18,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 19,84</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 16,51</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 23,8</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 18,95</t>
+          <t>3,59; 23,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,14; 38,03</t>
+          <t>8,6; 49,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 42,02</t>
+          <t>9,92; 56,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 11,17</t>
+          <t>4,14; 51,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,04</t>
+          <t>1,62; 15,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 16,34</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 11,83</t>
+          <t>3,35; 18,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 21,34</t>
+          <t>4,84; 21,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 27,18</t>
+          <t>4,61; 15,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 32,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 38,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 39,32</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>9,53%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 23,61</t>
+          <t>1,47; 12,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 23,13</t>
+          <t>1,43; 12,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 34,49</t>
+          <t>1,46; 16,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 16,04</t>
+          <t>2,92; 17,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 12,68</t>
+          <t>6,93; 20,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 15,16</t>
+          <t>3,56; 14,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 17,82</t>
+          <t>5,47; 18,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 16,13</t>
+          <t>4,29; 14,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 22,19</t>
+          <t>5,67; 14,67</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 11,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 14,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 13,86</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 19,38</t>
+          <t>7,8; 23,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 22,46</t>
+          <t>8,68; 26,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 21,25</t>
+          <t>8,78; 26,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 21,56</t>
+          <t>9,13; 26,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 21,18</t>
+          <t>8,22; 22,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 23,53</t>
+          <t>8,21; 22,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 18,26</t>
+          <t>9,08; 23,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 19,62</t>
+          <t>14,33; 29,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 20,63</t>
+          <t>10,19; 20,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 21,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 21,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,81; 24,94</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,2; 30,49</t>
+          <t>16,97; 39,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 33,02</t>
+          <t>20,16; 43,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 33,52</t>
+          <t>19,41; 42,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 24,48</t>
+          <t>20,7; 44,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,13; 30,04</t>
+          <t>5,55; 26,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 23,48</t>
+          <t>7,77; 28,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,0; 24,3</t>
+          <t>5,91; 25,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 28,43</t>
+          <t>10,31; 32,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 26,25</t>
+          <t>14,99; 30,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 34,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 30,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 35,47</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22,31%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,0; 27,91</t>
+          <t>6,9; 29,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 30,69</t>
+          <t>9,39; 37,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 25,5</t>
+          <t>5,13; 27,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,78; 35,08</t>
+          <t>11,2; 40,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,55; 51,4</t>
+          <t>11,88; 39,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,58; 28,84</t>
+          <t>6,95; 29,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,29; 29,16</t>
+          <t>1,81; 18,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,22; 41,19</t>
+          <t>9,9; 37,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,56; 24,46</t>
+          <t>11,35; 29,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 27,13</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 17,66</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 33,2</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10,26%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>13,56%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>12,8%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>13,75%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,84; 17,42</t>
+          <t>10,5; 18,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,53</t>
+          <t>13,46; 25,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,1</t>
+          <t>12,15; 24,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,1</t>
+          <t>14,29; 27,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,02; 19,15</t>
+          <t>9,84; 16,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,84</t>
+          <t>7,55; 13,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,09</t>
+          <t>8,01; 14,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,66</t>
+          <t>11,96; 19,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,88; 17,05</t>
+          <t>10,85; 15,91</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 18,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 17,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 21,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10946</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14294</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7422</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26666</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11726</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10193</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11430</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12576</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22672</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24488</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18851</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39242</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3458; 30483</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4189; 33574</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25383</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10920; 59344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2985; 26264</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2589; 22978</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2723; 25349</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2872; 27305</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9408; 43490</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10035; 44799</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7699; 41290</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19938; 69333</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18483</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34346</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39609</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45356</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10981</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10655</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18018</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29464</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36323</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50264</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>63374</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6052; 39315</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12337; 71621</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15300; 86475</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9435; 118325</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2669; 25113</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9740</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4232; 23622</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7862; 35032</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15400; 53258</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15370; 87977</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23603; 107173</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26709; 153371</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7670</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6291</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14442</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32924</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16485</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21286</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20908</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40594</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22776</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29605</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35349</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2380; 20219</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1920; 16961</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2008; 22862</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5263; 32112</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18296; 53141</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7454; 30264</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10968; 37419</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10155; 35310</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24164; 62494</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12040; 39774</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17145; 49584</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20551; 57806</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26503</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26454</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25372</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32703</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31093</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26555</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26142</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45380</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>57596</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53009</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51515</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>78083</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14554; 43242</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13997; 42058</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>13710; 40680</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17970; 51894</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17939; 48345</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15272; 42126</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15654; 39939</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30491; 63763</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41287; 82054</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>37479; 73292</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35806; 70507</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56555; 102123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43214</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41639</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36308</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>49182</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16270</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14606</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12289</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27101</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59484</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>56244</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48598</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>76283</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26716; 61907</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26623; 57222</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23912; 52005</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32016; 68918</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6444; 30310</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7289; 26559</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5481; 23229</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14130; 44846</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41028; 82089</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39845; 77138</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>34112; 65527</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>54444; 103479</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16691</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17308</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>30264</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>30877</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16463</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>45748</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47568</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>33772</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20028</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>76011</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7538; 32258</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8198; 32701</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4625; 24885</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>15058; 54363</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16350; 53784</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7309; 31461</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2004; 20388</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20428; 78132</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>28037; 74013</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>18356; 52223</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9710; 35441</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>45435; 113117</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>123507</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>140333</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>128965</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>198612</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>133871</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>86279</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>89896</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>169730</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>257378</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>226612</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>218861</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>368343</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>93573; 163834</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>102823; 191745</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>95881; 193138</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>148538; 283947</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>101842; 171749</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>63522; 112387</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>66069; 117412</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>131701; 215932</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>208979; 306444</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>187763; 291024</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>181813; 288815</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>301212; 470212</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>